--- a/input_data/reddit-corpus-small.xlsx
+++ b/input_data/reddit-corpus-small.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,11 +459,6 @@
           <t>Text</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Timestamp</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -491,9 +486,6 @@
           <t>[deleted]</t>
         </is>
       </c>
-      <c r="F2" t="n">
-        <v>1463855892</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -521,9 +513,6 @@
           <t>[deleted]</t>
         </is>
       </c>
-      <c r="F3" t="n">
-        <v>1463856290</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -551,9 +540,6 @@
           <t>[deleted]</t>
         </is>
       </c>
-      <c r="F4" t="n">
-        <v>1463856474</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -581,9 +567,6 @@
           <t>[deleted]</t>
         </is>
       </c>
-      <c r="F5" t="n">
-        <v>1463856676</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -611,9 +594,6 @@
           <t>[deleted]</t>
         </is>
       </c>
-      <c r="F6" t="n">
-        <v>1463856854</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -641,9 +621,6 @@
           <t>[deleted]</t>
         </is>
       </c>
-      <c r="F7" t="n">
-        <v>1463856979</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -670,9 +647,6 @@
         <is>
           <t>[deleted]</t>
         </is>
-      </c>
-      <c r="F8" t="n">
-        <v>1463862219</v>
       </c>
     </row>
   </sheetData>
